--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl5-Ccr5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl5-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,13 +88,16 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ccl5</t>
   </si>
   <si>
     <t>Ccr5</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.26826952797315</v>
+        <v>0.021814</v>
       </c>
       <c r="H2">
-        <v>1.26826952797315</v>
+        <v>0.065442</v>
       </c>
       <c r="I2">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="J2">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>48.4575390136119</v>
+        <v>0.03930266666666667</v>
       </c>
       <c r="N2">
-        <v>48.4575390136119</v>
+        <v>0.117908</v>
       </c>
       <c r="O2">
-        <v>0.4047526830301316</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="P2">
-        <v>0.4047526830301316</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="Q2">
-        <v>61.45722013153406</v>
+        <v>0.0008573483706666667</v>
       </c>
       <c r="R2">
-        <v>61.45722013153406</v>
+        <v>0.007716135336</v>
       </c>
       <c r="S2">
-        <v>0.0110587488749508</v>
+        <v>1.120505450867166E-07</v>
       </c>
       <c r="T2">
-        <v>0.0110587488749508</v>
+        <v>1.120505450867166E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -596,49 +602,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.26826952797315</v>
+        <v>0.021814</v>
       </c>
       <c r="H3">
-        <v>1.26826952797315</v>
+        <v>0.065442</v>
       </c>
       <c r="I3">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="J3">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>61.1483113516776</v>
+        <v>60.87605266666667</v>
       </c>
       <c r="N3">
-        <v>61.1483113516776</v>
+        <v>182.628158</v>
       </c>
       <c r="O3">
-        <v>0.510755262981907</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="P3">
-        <v>0.510755262981907</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="Q3">
-        <v>77.55253997434735</v>
+        <v>1.327950212870667</v>
       </c>
       <c r="R3">
-        <v>77.55253997434735</v>
+        <v>11.951551915836</v>
       </c>
       <c r="S3">
-        <v>0.01395497652440732</v>
+        <v>0.0001735555233918225</v>
       </c>
       <c r="T3">
-        <v>0.01395497652440732</v>
+        <v>0.0001735555233918224</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +652,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.26826952797315</v>
+        <v>0.021814</v>
       </c>
       <c r="H4">
-        <v>1.26826952797315</v>
+        <v>0.065442</v>
       </c>
       <c r="I4">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="J4">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.1155030568557</v>
+        <v>63.712864</v>
       </c>
       <c r="N4">
-        <v>10.1155030568557</v>
+        <v>191.138592</v>
       </c>
       <c r="O4">
-        <v>0.08449205398796139</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="P4">
-        <v>0.08449205398796139</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="Q4">
-        <v>12.82918428712933</v>
+        <v>1.389832415296</v>
       </c>
       <c r="R4">
-        <v>12.82918428712933</v>
+        <v>12.508491737664</v>
       </c>
       <c r="S4">
-        <v>0.002308511953488622</v>
+        <v>0.0001816431745149398</v>
       </c>
       <c r="T4">
-        <v>0.002308511953488622</v>
+        <v>0.0001816431745149398</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>9.98925018056247</v>
+        <v>0.021814</v>
       </c>
       <c r="H5">
-        <v>9.98925018056247</v>
+        <v>0.065442</v>
       </c>
       <c r="I5">
-        <v>0.2151976834501957</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="J5">
-        <v>0.2151976834501957</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>48.4575390136119</v>
+        <v>10.93095566666667</v>
       </c>
       <c r="N5">
-        <v>48.4575390136119</v>
+        <v>32.792867</v>
       </c>
       <c r="O5">
-        <v>0.4047526830301316</v>
+        <v>0.08063604449250054</v>
       </c>
       <c r="P5">
-        <v>0.4047526830301316</v>
+        <v>0.08063604449250053</v>
       </c>
       <c r="Q5">
-        <v>484.0544803413356</v>
+        <v>0.2384478669126667</v>
       </c>
       <c r="R5">
-        <v>484.0544803413356</v>
+        <v>2.146030802214</v>
       </c>
       <c r="S5">
-        <v>0.08710183975833564</v>
+        <v>3.116377703214541E-05</v>
       </c>
       <c r="T5">
-        <v>0.08710183975833564</v>
+        <v>3.116377703214541E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.98925018056247</v>
+        <v>1.348859666666667</v>
       </c>
       <c r="H6">
-        <v>9.98925018056247</v>
+        <v>4.046578999999999</v>
       </c>
       <c r="I6">
-        <v>0.2151976834501957</v>
+        <v>0.02389749241860727</v>
       </c>
       <c r="J6">
-        <v>0.2151976834501957</v>
+        <v>0.02389749241860726</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>61.1483113516776</v>
+        <v>0.03930266666666667</v>
       </c>
       <c r="N6">
-        <v>61.1483113516776</v>
+        <v>0.117908</v>
       </c>
       <c r="O6">
-        <v>0.510755262981907</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="P6">
-        <v>0.510755262981907</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="Q6">
-        <v>610.8257802108355</v>
+        <v>0.0530137818591111</v>
       </c>
       <c r="R6">
-        <v>610.8257802108355</v>
+        <v>0.4771240367319999</v>
       </c>
       <c r="S6">
-        <v>0.1099133494037019</v>
+        <v>6.928599105871772E-06</v>
       </c>
       <c r="T6">
-        <v>0.1099133494037019</v>
+        <v>6.928599105871771E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +838,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.98925018056247</v>
+        <v>1.348859666666667</v>
       </c>
       <c r="H7">
-        <v>9.98925018056247</v>
+        <v>4.046578999999999</v>
       </c>
       <c r="I7">
-        <v>0.2151976834501957</v>
+        <v>0.02389749241860727</v>
       </c>
       <c r="J7">
-        <v>0.2151976834501957</v>
+        <v>0.02389749241860726</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.1155030568557</v>
+        <v>60.87605266666667</v>
       </c>
       <c r="N7">
-        <v>10.1155030568557</v>
+        <v>182.628158</v>
       </c>
       <c r="O7">
-        <v>0.08449205398796139</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="P7">
-        <v>0.08449205398796139</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="Q7">
-        <v>101.046290737176</v>
+        <v>82.11325210794244</v>
       </c>
       <c r="R7">
-        <v>101.046290737176</v>
+        <v>739.019268971482</v>
       </c>
       <c r="S7">
-        <v>0.01818249428815816</v>
+        <v>0.01073173399791201</v>
       </c>
       <c r="T7">
-        <v>0.01818249428815816</v>
+        <v>0.010731733997912</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.1614287690131</v>
+        <v>1.348859666666667</v>
       </c>
       <c r="H8">
-        <v>35.1614287690131</v>
+        <v>4.046578999999999</v>
       </c>
       <c r="I8">
-        <v>0.7574800791969577</v>
+        <v>0.02389749241860727</v>
       </c>
       <c r="J8">
-        <v>0.7574800791969577</v>
+        <v>0.02389749241860726</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.4575390136119</v>
+        <v>63.712864</v>
       </c>
       <c r="N8">
-        <v>48.4575390136119</v>
+        <v>191.138592</v>
       </c>
       <c r="O8">
-        <v>0.4047526830301316</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="P8">
-        <v>0.4047526830301316</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="Q8">
-        <v>1703.836306348788</v>
+        <v>85.93971249741867</v>
       </c>
       <c r="R8">
-        <v>1703.836306348788</v>
+        <v>773.457412476768</v>
       </c>
       <c r="S8">
-        <v>0.3065920943968452</v>
+        <v>0.01123183055966338</v>
       </c>
       <c r="T8">
-        <v>0.3065920943968452</v>
+        <v>0.01123183055966338</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>35.1614287690131</v>
+        <v>1.348859666666667</v>
       </c>
       <c r="H9">
-        <v>35.1614287690131</v>
+        <v>4.046578999999999</v>
       </c>
       <c r="I9">
-        <v>0.7574800791969577</v>
+        <v>0.02389749241860727</v>
       </c>
       <c r="J9">
-        <v>0.7574800791969577</v>
+        <v>0.02389749241860726</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.1483113516776</v>
+        <v>10.93095566666667</v>
       </c>
       <c r="N9">
-        <v>61.1483113516776</v>
+        <v>32.792867</v>
       </c>
       <c r="O9">
-        <v>0.510755262981907</v>
+        <v>0.08063604449250054</v>
       </c>
       <c r="P9">
-        <v>0.510755262981907</v>
+        <v>0.08063604449250053</v>
       </c>
       <c r="Q9">
-        <v>2150.061993937447</v>
+        <v>14.74432521688811</v>
       </c>
       <c r="R9">
-        <v>2150.061993937447</v>
+        <v>132.698926951993</v>
       </c>
       <c r="S9">
-        <v>0.3868869370537978</v>
+        <v>0.00192699926192601</v>
       </c>
       <c r="T9">
-        <v>0.3868869370537978</v>
+        <v>0.001926999261926009</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1024,991 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>18.462627</v>
+      </c>
+      <c r="H10">
+        <v>55.387881</v>
+      </c>
+      <c r="I10">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="J10">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.03930266666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.117908</v>
+      </c>
+      <c r="O10">
+        <v>0.0002899299635503584</v>
+      </c>
+      <c r="P10">
+        <v>0.0002899299635503584</v>
+      </c>
+      <c r="Q10">
+        <v>0.725630474772</v>
+      </c>
+      <c r="R10">
+        <v>6.530674272948</v>
+      </c>
+      <c r="S10">
+        <v>9.48357668966137E-05</v>
+      </c>
+      <c r="T10">
+        <v>9.48357668966137E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>18.462627</v>
+      </c>
+      <c r="H11">
+        <v>55.387881</v>
+      </c>
+      <c r="I11">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="J11">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>60.87605266666667</v>
+      </c>
+      <c r="N11">
+        <v>182.628158</v>
+      </c>
+      <c r="O11">
+        <v>0.4490736437918471</v>
+      </c>
+      <c r="P11">
+        <v>0.4490736437918471</v>
+      </c>
+      <c r="Q11">
+        <v>1123.931853617022</v>
+      </c>
+      <c r="R11">
+        <v>10115.3866825532</v>
+      </c>
+      <c r="S11">
+        <v>0.1468914867595578</v>
+      </c>
+      <c r="T11">
+        <v>0.1468914867595577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>18.462627</v>
+      </c>
+      <c r="H12">
+        <v>55.387881</v>
+      </c>
+      <c r="I12">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="J12">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>63.712864</v>
+      </c>
+      <c r="N12">
+        <v>191.138592</v>
+      </c>
+      <c r="O12">
+        <v>0.470000381752102</v>
+      </c>
+      <c r="P12">
+        <v>0.470000381752102</v>
+      </c>
+      <c r="Q12">
+        <v>1176.306843133728</v>
+      </c>
+      <c r="R12">
+        <v>10586.76158820355</v>
+      </c>
+      <c r="S12">
+        <v>0.1537365993474485</v>
+      </c>
+      <c r="T12">
+        <v>0.1537365993474485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>18.462627</v>
+      </c>
+      <c r="H13">
+        <v>55.387881</v>
+      </c>
+      <c r="I13">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="J13">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>10.93095566666667</v>
+      </c>
+      <c r="N13">
+        <v>32.792867</v>
+      </c>
+      <c r="O13">
+        <v>0.08063604449250054</v>
+      </c>
+      <c r="P13">
+        <v>0.08063604449250053</v>
+      </c>
+      <c r="Q13">
+        <v>201.814157227203</v>
+      </c>
+      <c r="R13">
+        <v>1816.327415044827</v>
+      </c>
+      <c r="S13">
+        <v>0.02637595999154982</v>
+      </c>
+      <c r="T13">
+        <v>0.02637595999154982</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>35.93651066666667</v>
+      </c>
+      <c r="H14">
+        <v>107.809532</v>
+      </c>
+      <c r="I14">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="J14">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.03930266666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.117908</v>
+      </c>
+      <c r="O14">
+        <v>0.0002899299635503584</v>
+      </c>
+      <c r="P14">
+        <v>0.0002899299635503584</v>
+      </c>
+      <c r="Q14">
+        <v>1.412400699895111</v>
+      </c>
+      <c r="R14">
+        <v>12.711606299056</v>
+      </c>
+      <c r="S14">
+        <v>0.0001845927206708813</v>
+      </c>
+      <c r="T14">
+        <v>0.0001845927206708813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>35.93651066666667</v>
+      </c>
+      <c r="H15">
+        <v>107.809532</v>
+      </c>
+      <c r="I15">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="J15">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>60.87605266666667</v>
+      </c>
+      <c r="N15">
+        <v>182.628158</v>
+      </c>
+      <c r="O15">
+        <v>0.4490736437918471</v>
+      </c>
+      <c r="P15">
+        <v>0.4490736437918471</v>
+      </c>
+      <c r="Q15">
+        <v>2187.672916000229</v>
+      </c>
+      <c r="R15">
+        <v>19689.05624400206</v>
+      </c>
+      <c r="S15">
+        <v>0.2859163801975403</v>
+      </c>
+      <c r="T15">
+        <v>0.2859163801975403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>35.93651066666667</v>
+      </c>
+      <c r="H16">
+        <v>107.809532</v>
+      </c>
+      <c r="I16">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="J16">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>63.712864</v>
+      </c>
+      <c r="N16">
+        <v>191.138592</v>
+      </c>
+      <c r="O16">
+        <v>0.470000381752102</v>
+      </c>
+      <c r="P16">
+        <v>0.470000381752102</v>
+      </c>
+      <c r="Q16">
+        <v>2289.618016739883</v>
+      </c>
+      <c r="R16">
+        <v>20606.56215065895</v>
+      </c>
+      <c r="S16">
+        <v>0.2992400237683749</v>
+      </c>
+      <c r="T16">
+        <v>0.2992400237683749</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>35.93651066666667</v>
+      </c>
+      <c r="H17">
+        <v>107.809532</v>
+      </c>
+      <c r="I17">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="J17">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.93095566666667</v>
+      </c>
+      <c r="N17">
+        <v>32.792867</v>
+      </c>
+      <c r="O17">
+        <v>0.08063604449250054</v>
+      </c>
+      <c r="P17">
+        <v>0.08063604449250053</v>
+      </c>
+      <c r="Q17">
+        <v>392.8204049120272</v>
+      </c>
+      <c r="R17">
+        <v>3535.383644208244</v>
+      </c>
+      <c r="S17">
+        <v>0.05133938781192424</v>
+      </c>
+      <c r="T17">
+        <v>0.05133938781192423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.178527</v>
+      </c>
+      <c r="H18">
+        <v>0.535581</v>
+      </c>
+      <c r="I18">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="J18">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.03930266666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.117908</v>
+      </c>
+      <c r="O18">
+        <v>0.0002899299635503584</v>
+      </c>
+      <c r="P18">
+        <v>0.0002899299635503584</v>
+      </c>
+      <c r="Q18">
+        <v>0.007016587172</v>
+      </c>
+      <c r="R18">
+        <v>0.06314928454799999</v>
+      </c>
+      <c r="S18">
+        <v>9.170279482303223E-07</v>
+      </c>
+      <c r="T18">
+        <v>9.170279482303223E-07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.178527</v>
+      </c>
+      <c r="H19">
+        <v>0.535581</v>
+      </c>
+      <c r="I19">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="J19">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>60.87605266666667</v>
+      </c>
+      <c r="N19">
+        <v>182.628158</v>
+      </c>
+      <c r="O19">
+        <v>0.4490736437918471</v>
+      </c>
+      <c r="P19">
+        <v>0.4490736437918471</v>
+      </c>
+      <c r="Q19">
+        <v>10.868019054422</v>
+      </c>
+      <c r="R19">
+        <v>97.812171489798</v>
+      </c>
+      <c r="S19">
+        <v>0.001420388141770051</v>
+      </c>
+      <c r="T19">
+        <v>0.001420388141770051</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.178527</v>
+      </c>
+      <c r="H20">
+        <v>0.535581</v>
+      </c>
+      <c r="I20">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="J20">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>63.712864</v>
+      </c>
+      <c r="N20">
+        <v>191.138592</v>
+      </c>
+      <c r="O20">
+        <v>0.470000381752102</v>
+      </c>
+      <c r="P20">
+        <v>0.470000381752102</v>
+      </c>
+      <c r="Q20">
+        <v>11.374466471328</v>
+      </c>
+      <c r="R20">
+        <v>102.370198241952</v>
+      </c>
+      <c r="S20">
+        <v>0.001486577932365851</v>
+      </c>
+      <c r="T20">
+        <v>0.001486577932365851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.178527</v>
+      </c>
+      <c r="H21">
+        <v>0.535581</v>
+      </c>
+      <c r="I21">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="J21">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10.93095566666667</v>
+      </c>
+      <c r="N21">
+        <v>32.792867</v>
+      </c>
+      <c r="O21">
+        <v>0.08063604449250054</v>
+      </c>
+      <c r="P21">
+        <v>0.08063604449250053</v>
+      </c>
+      <c r="Q21">
+        <v>1.951470722303</v>
+      </c>
+      <c r="R21">
+        <v>17.563236500727</v>
+      </c>
+      <c r="S21">
+        <v>0.0002550460998541223</v>
+      </c>
+      <c r="T21">
+        <v>0.0002550460998541222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>35.1614287690131</v>
-      </c>
-      <c r="H10">
-        <v>35.1614287690131</v>
-      </c>
-      <c r="I10">
-        <v>0.7574800791969577</v>
-      </c>
-      <c r="J10">
-        <v>0.7574800791969577</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>10.1155030568557</v>
-      </c>
-      <c r="N10">
-        <v>10.1155030568557</v>
-      </c>
-      <c r="O10">
-        <v>0.08449205398796139</v>
-      </c>
-      <c r="P10">
-        <v>0.08449205398796139</v>
-      </c>
-      <c r="Q10">
-        <v>355.6755401963659</v>
-      </c>
-      <c r="R10">
-        <v>355.6755401963659</v>
-      </c>
-      <c r="S10">
-        <v>0.06400104774631463</v>
-      </c>
-      <c r="T10">
-        <v>0.06400104774631463</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.4952266666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.48568</v>
+      </c>
+      <c r="I22">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="J22">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.03930266666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.117908</v>
+      </c>
+      <c r="O22">
+        <v>0.0002899299635503584</v>
+      </c>
+      <c r="P22">
+        <v>0.0002899299635503584</v>
+      </c>
+      <c r="Q22">
+        <v>0.01946372860444445</v>
+      </c>
+      <c r="R22">
+        <v>0.17517355744</v>
+      </c>
+      <c r="S22">
+        <v>2.543798383674599E-06</v>
+      </c>
+      <c r="T22">
+        <v>2.543798383674599E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.4952266666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.48568</v>
+      </c>
+      <c r="I23">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="J23">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>60.87605266666667</v>
+      </c>
+      <c r="N23">
+        <v>182.628158</v>
+      </c>
+      <c r="O23">
+        <v>0.4490736437918471</v>
+      </c>
+      <c r="P23">
+        <v>0.4490736437918471</v>
+      </c>
+      <c r="Q23">
+        <v>30.14744464193778</v>
+      </c>
+      <c r="R23">
+        <v>271.32700177744</v>
+      </c>
+      <c r="S23">
+        <v>0.003940099171675114</v>
+      </c>
+      <c r="T23">
+        <v>0.003940099171675113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.4952266666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.48568</v>
+      </c>
+      <c r="I24">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="J24">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>63.712864</v>
+      </c>
+      <c r="N24">
+        <v>191.138592</v>
+      </c>
+      <c r="O24">
+        <v>0.470000381752102</v>
+      </c>
+      <c r="P24">
+        <v>0.470000381752102</v>
+      </c>
+      <c r="Q24">
+        <v>31.55230926250667</v>
+      </c>
+      <c r="R24">
+        <v>283.97078336256</v>
+      </c>
+      <c r="S24">
+        <v>0.004123706969734357</v>
+      </c>
+      <c r="T24">
+        <v>0.004123706969734357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.4952266666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.48568</v>
+      </c>
+      <c r="I25">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="J25">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>10.93095566666667</v>
+      </c>
+      <c r="N25">
+        <v>32.792867</v>
+      </c>
+      <c r="O25">
+        <v>0.08063604449250054</v>
+      </c>
+      <c r="P25">
+        <v>0.08063604449250053</v>
+      </c>
+      <c r="Q25">
+        <v>5.413300738284446</v>
+      </c>
+      <c r="R25">
+        <v>48.71970664456001</v>
+      </c>
+      <c r="S25">
+        <v>0.0007074875502142018</v>
+      </c>
+      <c r="T25">
+        <v>0.0007074875502142017</v>
       </c>
     </row>
   </sheetData>
